--- a/medicine/Enfance/Fantômette_et_son_Prince/Fantômette_et_son_Prince.xlsx
+++ b/medicine/Enfance/Fantômette_et_son_Prince/Fantômette_et_son_Prince.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_son_Prince</t>
+          <t>Fantômette_et_son_Prince</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette et son Prince est le 12e roman de la série humoristique Fantômette créée par Georges Chaulet.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_son_Prince</t>
+          <t>Fantômette_et_son_Prince</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette et son Prince a donc pu être vendu à environ 200 000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_son_Prince</t>
+          <t>Fantômette_et_son_Prince</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Françoise Dupont / Fantômette / Flore Dujardin : héroïne du roman
 Norberto : prince héréditaire du Panorama
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_son_Prince</t>
+          <t>Fantômette_et_son_Prince</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1968 en langue française.
 Mise en place de l'intrigue (chapitres 1 et 2)
